--- a/TestCase_FeatureName_V1.xlsx
+++ b/TestCase_FeatureName_V1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbzhang\Desktop\DOALP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hbzhang\Desktop\DOALP\DOALP_TestDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="3" r:id="rId2"/>
-    <sheet name="Test_53week_01 Detail" sheetId="4" r:id="rId3"/>
+    <sheet name="Test_53week_01" sheetId="4" r:id="rId3"/>
     <sheet name="TestData" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -143,12 +144,6 @@
     <t>Use Dynamic Parameters</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Test_53week_01 Detail</t>
   </si>
   <si>
@@ -336,6 +331,12 @@
   </si>
   <si>
     <t>Test_53week_02 Detail</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>te</t>
   </si>
 </sst>
 </file>
@@ -486,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -543,6 +544,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +834,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,23 +1072,13 @@
       <c r="C2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="17" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1092,28 +1086,18 @@
         <v>29</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1128,9 +1112,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
@@ -1154,261 +1140,246 @@
     <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" outlineLevel="1">
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" outlineLevel="1">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" outlineLevel="1">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" outlineLevel="1">
+    </row>
+    <row r="4" spans="1:9" outlineLevel="1">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1">
+    <row r="5" spans="1:9" outlineLevel="1">
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" outlineLevel="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" outlineLevel="1">
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" outlineLevel="1">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" outlineLevel="1">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" outlineLevel="1">
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" outlineLevel="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" outlineLevel="1">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" outlineLevel="1">
+    <row r="10" spans="1:9" outlineLevel="1">
       <c r="B10" s="10"/>
       <c r="C10" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1">
+    <row r="11" spans="1:9" outlineLevel="1">
       <c r="B11" s="10"/>
-      <c r="C11" s="14" t="s">
-        <v>46</v>
+      <c r="C11" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1">
+    <row r="12" spans="1:9" outlineLevel="1">
       <c r="B12" s="10"/>
-      <c r="C12" s="15" t="s">
-        <v>47</v>
+      <c r="C12" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" outlineLevel="1">
+    <row r="13" spans="1:9" outlineLevel="1">
       <c r="B13" s="10"/>
-      <c r="C13" s="14" t="s">
-        <v>48</v>
+      <c r="C13" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1">
+    <row r="14" spans="1:9" outlineLevel="1">
       <c r="B14" s="10"/>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" outlineLevel="1">
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:9" outlineLevel="1">
+      <c r="B15" s="10"/>
+      <c r="C15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" outlineLevel="1">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" outlineLevel="1">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="1">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" outlineLevel="1">
-      <c r="B18" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="T18" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:21" outlineLevel="1">
       <c r="B19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="10">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
+      <c r="D19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:21" outlineLevel="1">
       <c r="B20" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="10">
         <v>5</v>
@@ -1432,14 +1403,14 @@
     </row>
     <row r="21" spans="1:21" outlineLevel="1">
       <c r="B21" s="10" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1460,14 +1431,14 @@
     </row>
     <row r="22" spans="1:21" outlineLevel="1">
       <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1488,14 +1459,14 @@
     </row>
     <row r="23" spans="1:21" outlineLevel="1">
       <c r="B23" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="13" t="s">
-        <v>81</v>
+      <c r="D23" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1516,14 +1487,14 @@
     </row>
     <row r="24" spans="1:21" outlineLevel="1">
       <c r="B24" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1542,86 +1513,103 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" outlineLevel="1">
-      <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="25" spans="1:21" outlineLevel="1">
+      <c r="B25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" outlineLevel="1">
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" outlineLevel="1">
-      <c r="B27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:21" outlineLevel="1">
       <c r="B28" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:21" outlineLevel="1">
       <c r="B29" s="10" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
     </row>
-    <row r="30" spans="1:21" outlineLevel="1"/>
-    <row r="31" spans="1:21" ht="47.25" outlineLevel="1">
-      <c r="B31" s="1" t="s">
+    <row r="30" spans="1:21" outlineLevel="1">
+      <c r="B30" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:21" outlineLevel="1"/>
+    <row r="32" spans="1:21" ht="47.25" outlineLevel="1">
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" outlineLevel="1">
-      <c r="B32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" outlineLevel="1">
-      <c r="B33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -1642,9 +1630,21 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
+    <row r="35" spans="2:10" outlineLevel="1">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D18:E18"/>
+  <mergeCells count="2">
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1655,12 +1655,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>